--- a/Taller 2/tabla_modelos_variables.xlsx
+++ b/Taller 2/tabla_modelos_variables.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1. 2021 -1\2. Machine Learning\Talleres-ML\Taller 2\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6F20B7-7E53-4DF2-9D8C-ACED8F211809}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>VRFA</t>
   </si>
@@ -71,13 +77,19 @@
   </si>
   <si>
     <t>fractal dimension</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Logit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,12 +106,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -129,22 +147,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -218,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -252,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,363 +499,446 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="L1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="6">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1</v>
+      </c>
+      <c r="K2" s="6">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <f>SUM(B2:K2)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1</v>
+      </c>
+      <c r="J3" s="6">
+        <v>1</v>
+      </c>
+      <c r="K3" s="6">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L11" si="0">SUM(B3:K3)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6">
+        <v>1</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
+      </c>
+      <c r="L8" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>1</v>
+      </c>
+      <c r="J10" s="6">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>